--- a/0_Datasets/Data2020/Region/clean_data/rref_2020_clean.xlsx
+++ b/0_Datasets/Data2020/Region/clean_data/rref_2020_clean.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,8 +446,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -456,8 +458,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -466,8 +470,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -476,8 +482,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -486,8 +494,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -496,8 +506,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -506,8 +518,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -516,8 +530,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -526,8 +542,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -536,8 +554,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -546,8 +566,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>11</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -556,8 +578,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>12</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -566,8 +590,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>13</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -576,8 +602,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>14</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -586,8 +614,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>15</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -596,8 +626,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>16</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -606,8 +638,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -616,8 +650,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -626,8 +662,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -636,8 +674,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
